--- a/data/iris_example/iris_test.xlsx
+++ b/data/iris_example/iris_test.xlsx
@@ -1,46 +1,150 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_496D4C3F8758880F623554765855FE79BF8584EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 데이터\문서\2. 대학원\강의\PyTorch 코딩\실습 자료\data\iris_example\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>sepalLength</t>
+    <r>
+      <t>iris</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>lass</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sepalWidth</t>
+    <r>
+      <t>petal</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_w</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>idth</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>petalLength</t>
+    <r>
+      <t>sepal</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ength</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>petalWidth</t>
+    <r>
+      <t>sepal</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_w</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>idth</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>irisClass</t>
+    <r>
+      <t>petal</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ength</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -48,6 +152,19 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,7 +204,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -391,31 +508,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5.0999999999999996</v>
       </c>
@@ -432,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4.4000000000000004</v>
       </c>
@@ -449,7 +575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5.7</v>
       </c>
@@ -466,7 +592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6.3</v>
       </c>
@@ -483,7 +609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6.4</v>
       </c>
@@ -500,7 +626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6.1</v>
       </c>
@@ -517,7 +643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6.7</v>
       </c>
@@ -534,7 +660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5.4</v>
       </c>
@@ -551,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5.2</v>
       </c>
@@ -568,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5.9</v>
       </c>
@@ -585,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6.7</v>
       </c>
@@ -602,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7.6</v>
       </c>
@@ -619,7 +745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5.8</v>
       </c>
@@ -636,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6.6</v>
       </c>
@@ -653,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5.6</v>
       </c>
@@ -671,6 +797,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>